--- a/Initiatives/Virtual Reality/VR-BUDGET.xlsx
+++ b/Initiatives/Virtual Reality/VR-BUDGET.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="68800" windowHeight="28800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Item</t>
   </si>
@@ -65,16 +65,28 @@
     <t>?</t>
   </si>
   <si>
-    <t>Storage Case</t>
-  </si>
-  <si>
     <t>Light Stands</t>
   </si>
   <si>
-    <t>Dedicated headphones?</t>
-  </si>
-  <si>
-    <t>Computer Moving Case</t>
+    <t>Pelican Storage Case</t>
+  </si>
+  <si>
+    <t>1 set of 2</t>
+  </si>
+  <si>
+    <t>Steam Support</t>
+  </si>
+  <si>
+    <t>Computer Long Term Support</t>
+  </si>
+  <si>
+    <t>Perception of only a few (gamers)</t>
+  </si>
+  <si>
+    <t>If it requires setup, determine hours of use</t>
+  </si>
+  <si>
+    <t>Instructional paper/video</t>
   </si>
 </sst>
 </file>
@@ -108,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -117,18 +129,58 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="double">
         <color auto="1"/>
       </bottom>
@@ -139,18 +191,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -429,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="218" zoomScaleNormal="218" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -441,119 +500,152 @@
     <col min="3" max="4" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="8">
         <v>600</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="8">
         <f>B2*C2</f>
         <v>600</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>1787.82</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <f>B3*C3</f>
         <v>1787.82</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>20</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>30</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <f>B4*C4</f>
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>300</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <f>B5*C5</f>
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="6" t="s">
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>100</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D6:D7" si="0">B7*C7</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4">
+        <v>40</v>
+      </c>
+      <c r="D8" s="11">
+        <f>C8</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="1">
-        <f>SUM(D2:D5)</f>
-        <v>3287.8199999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="D9" s="1">
+        <f>SUM(D2:D8)</f>
+        <v>3427.8199999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Initiatives/Virtual Reality/VR-BUDGET.xlsx
+++ b/Initiatives/Virtual Reality/VR-BUDGET.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="68800" windowHeight="28800" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Item</t>
   </si>
@@ -50,43 +50,31 @@
     <t>Games - TBD</t>
   </si>
   <si>
-    <t>Marketing</t>
-  </si>
-  <si>
     <t>Total:</t>
   </si>
   <si>
     <t>Folding Tables - TBD</t>
   </si>
   <si>
-    <t>1 or 2</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Light Stands</t>
   </si>
   <si>
     <t>Pelican Storage Case</t>
   </si>
   <si>
-    <t>1 set of 2</t>
-  </si>
-  <si>
-    <t>Steam Support</t>
-  </si>
-  <si>
-    <t>Computer Long Term Support</t>
-  </si>
-  <si>
-    <t>Perception of only a few (gamers)</t>
-  </si>
-  <si>
-    <t>If it requires setup, determine hours of use</t>
-  </si>
-  <si>
-    <t>Instructional paper/video</t>
+    <t>Chairs</t>
+  </si>
+  <si>
+    <t>Marketing &amp; Guides</t>
+  </si>
+  <si>
+    <t>Sub-Total:</t>
+  </si>
+  <si>
+    <t>Variances (7%):</t>
+  </si>
+  <si>
+    <t>Variance Allowance:</t>
   </si>
 </sst>
 </file>
@@ -96,7 +84,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -105,6 +93,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -187,11 +190,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -199,9 +203,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -210,10 +211,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -488,48 +495,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="211" zoomScaleNormal="211" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.1640625" customWidth="1"/>
     <col min="3" max="4" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>600</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <f>B2*C2</f>
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -543,8 +551,15 @@
         <f>B3*C3</f>
         <v>1787.82</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -559,9 +574,9 @@
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -574,81 +589,109 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4">
+        <v>188</v>
+      </c>
+      <c r="D6" s="4">
+        <f>C6*B6</f>
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>540.03</v>
+      </c>
+      <c r="D7" s="4">
+        <f>C7*B7</f>
+        <v>540.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>100</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" ref="D8" si="0">B8*C8</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>20</v>
+      </c>
+      <c r="D9" s="10">
+        <f>C9</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="6">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4">
-        <v>100</v>
-      </c>
-      <c r="D7" s="4">
-        <f t="shared" ref="D6:D7" si="0">B7*C7</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="D10" s="11">
+        <f>SUM(D2:D9)</f>
+        <v>5075.8499999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4">
-        <v>40</v>
-      </c>
-      <c r="D8" s="11">
-        <f>C8</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1">
-        <f>SUM(D2:D8)</f>
-        <v>3427.8199999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>19</v>
+      <c r="D11" s="1">
+        <f>D10*H3</f>
+        <v>253.79249999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
+        <f>D10+D11</f>
+        <v>5329.642499999999</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F3:G3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="percentile" val="10"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="percentile" val="90"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>